--- a/librodos.xlsx
+++ b/librodos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:E4"/>
+  <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -371,6 +371,32 @@
         <v>114</v>
       </c>
       <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <f>SUM(B4:B8)</f>
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
